--- a/Documentation/evaluation.xlsx
+++ b/Documentation/evaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c56e8f5f32bf7d06/Desktop/Napier/Group Project/git/MENS-SHED-SOC09109/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F0CFF8B-C57E-42F2-B692-2F1EF68D728D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{7F0CFF8B-C57E-42F2-B692-2F1EF68D728D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BE978E6-3925-4964-BAF9-A371AD4D3F80}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" xr2:uid="{D3077E67-E41E-4D18-ABDC-75152CBB6115}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Evaluate stakeholder satisfaction</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>Please provide any suggestions you may have for improving our project management</t>
+  </si>
+  <si>
+    <t>The team has worked very well together. By allowing the individuals to take ownership of the different elements, the team has worked to the best of their ability while constantly communicating with each other. To improve more conversations need to be documented.</t>
   </si>
 </sst>
 </file>
@@ -271,76 +274,75 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -656,185 +658,152 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{425B4185-E40C-4076-991A-93A77FD33441}">
-  <dimension ref="B1:K18"/>
+  <dimension ref="B1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:K18"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:11" ht="20.25" x14ac:dyDescent="0.7">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="29"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="12"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="5"/>
+      <c r="B3" s="1"/>
+      <c r="K3" s="2"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="8"/>
+      <c r="K4" s="2"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="8"/>
+      <c r="B5" s="1"/>
+      <c r="K5" s="2"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="14" t="s">
+      <c r="B6" s="1"/>
+      <c r="H6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="K6" s="5"/>
+      <c r="J6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="2"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B7" s="9">
+      <c r="B7" s="3">
         <v>1</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="5"/>
+      <c r="H7" s="7">
+        <v>7</v>
+      </c>
+      <c r="I7" s="7">
+        <v>8</v>
+      </c>
+      <c r="J7" s="7">
+        <v>8</v>
+      </c>
+      <c r="K7" s="2"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B8" s="9">
+      <c r="B8" s="3">
         <v>2</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="5"/>
+      <c r="H8" s="7">
+        <v>8</v>
+      </c>
+      <c r="I8" s="7">
+        <v>8</v>
+      </c>
+      <c r="J8" s="7">
+        <v>8</v>
+      </c>
+      <c r="K8" s="2"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B9" s="9">
+      <c r="B9" s="3">
         <v>3</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="5"/>
+      <c r="H9" s="7">
+        <v>7</v>
+      </c>
+      <c r="I9" s="7">
+        <v>8</v>
+      </c>
+      <c r="J9" s="7">
+        <v>8</v>
+      </c>
+      <c r="K9" s="2"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B10" s="9">
+      <c r="B10" s="3">
         <v>4</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="5"/>
+      <c r="H10" s="7">
+        <v>8</v>
+      </c>
+      <c r="I10" s="7">
+        <v>8</v>
+      </c>
+      <c r="J10" s="7">
+        <v>8</v>
+      </c>
+      <c r="K10" s="2"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B11" s="9"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4" t="s">
+      <c r="B11" s="3"/>
+      <c r="G11" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="7">
         <f>SUM(H7:H10)</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="13">
+        <v>30</v>
+      </c>
+      <c r="I11" s="7">
         <f t="shared" ref="I11:J11" si="0">SUM(I7:I10)</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="13">
+        <v>32</v>
+      </c>
+      <c r="J11" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="K11" s="2"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B12" s="9"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="5"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B12" s="3"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="15" t="s">
         <v>10</v>
       </c>
@@ -842,11 +811,13 @@
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="19"/>
+      <c r="G13" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="11"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B14" s="15"/>
@@ -854,65 +825,77 @@
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="19"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="11"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B15" s="18"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="19"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="11"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B16" s="18"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="19"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="11"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="19"/>
-    </row>
-    <row r="18" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="12"/>
+      <c r="B17" s="1"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="11"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B18" s="1"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="11"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B19" s="1"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="11"/>
+    </row>
+    <row r="20" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="B13:F14"/>
-    <mergeCell ref="G13:J17"/>
+    <mergeCell ref="G13:J19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
